--- a/data/trans_bre/P11_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.899367327619998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.913579659387767</v>
+        <v>2.913579659387768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1208067247945324</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.988347488902818</v>
+        <v>-4.179712701734147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.684110184035291</v>
+        <v>3.746418409481675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.109661614222921</v>
+        <v>3.884433853899975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.741453472108083</v>
+        <v>0.4704850390628068</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6144500884318816</v>
+        <v>-0.6213510903732813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3315427641378384</v>
+        <v>0.3533366590432364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3285904297751203</v>
+        <v>0.4538912466403878</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1333953451548041</v>
+        <v>-0.02110945994579921</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.057002565569699</v>
+        <v>3.073941749960644</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.74434797768957</v>
+        <v>14.36614315017067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.43360570854407</v>
+        <v>14.22436828858461</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.044224438437993</v>
+        <v>5.548355228145072</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9131624140243629</v>
+        <v>1.029289473600059</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.092386515314644</v>
+        <v>3.211831642321725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.190210526834996</v>
+        <v>3.312213149788758</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6.090731471729661</v>
+        <v>5.062579466362881</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.867717198641905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.982248111217599</v>
+        <v>2.982248111217602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.019415600745287</v>
@@ -749,7 +749,7 @@
         <v>0.9167070433609876</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5580815917371311</v>
+        <v>0.5580815917371316</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.256645708114036</v>
+        <v>0.654927721270385</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.960054196006318</v>
+        <v>1.954944585487155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8623484419985256</v>
+        <v>0.6026519790069329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.2653340454449502</v>
+        <v>-0.1276583832170758</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1720497321306477</v>
+        <v>0.08468356292876349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1897497129346636</v>
+        <v>0.1695053523285168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1384872743829561</v>
+        <v>0.07688262006422961</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06952636858940239</v>
+        <v>-0.04607434612343923</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.265763335623148</v>
+        <v>7.058622540899444</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.14717799697934</v>
+        <v>9.970457326036501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.421416082336088</v>
+        <v>7.073292235724822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.78045195066936</v>
+        <v>5.701300442898603</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.897528127094947</v>
+        <v>2.68005193108443</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.043446652160272</v>
+        <v>2.063471131006463</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.563667121792966</v>
+        <v>2.318805225655558</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.476396403630519</v>
+        <v>1.53732669760048</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.864021966642743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.115427965203139</v>
+        <v>4.115427965203147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.250107185816596</v>
@@ -849,7 +849,7 @@
         <v>1.859300383089629</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2654096601675859</v>
+        <v>0.2654096601675865</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4684922525050863</v>
+        <v>-0.3921797695089173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.455664250983868</v>
+        <v>-2.09899196066889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3455261874304683</v>
+        <v>0.13159294150615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7503657553534194</v>
+        <v>-1.02483967751105</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5705784613340616</v>
+        <v>-0.5112953613698743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3150892980258782</v>
+        <v>-0.2684446337547957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1204089948520535</v>
+        <v>-0.1816076064970641</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04742808015947692</v>
+        <v>-0.06574417706551448</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.262767331023623</v>
+        <v>3.165332591959248</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.676790500722101</v>
+        <v>5.951936218176832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.58002044050669</v>
+        <v>5.729680285643271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.639361036968618</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>10.46781774971438</v>
-      </c>
+        <v>8.683586029276077</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.439542129500951</v>
+        <v>1.549817336605112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.39851146780107</v>
+        <v>8.52963650486708</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6561516750155638</v>
+        <v>0.6700164660181012</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.861556840187778</v>
+        <v>-1.610998662184137</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.349039475000202</v>
+        <v>2.379315180762673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.460807519245627</v>
+        <v>5.376117565572637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.166812724159151</v>
+        <v>1.450649858732712</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.517974870091933</v>
+        <v>-0.4722152563141715</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2255834003115234</v>
+        <v>0.2215721116226017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4543994311045906</v>
+        <v>0.4418246885352884</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1486320622536522</v>
+        <v>0.1012010443618599</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.94895528458776</v>
+        <v>3.13642351988995</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.40848605718381</v>
+        <v>11.47933034379511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.82240461711614</v>
+        <v>16.31684922858286</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.09015290968418</v>
+        <v>11.2401494237275</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.90298891031268</v>
+        <v>2.561270940836848</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.099447746580323</v>
+        <v>2.063317065651284</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.270252505917122</v>
+        <v>2.50133765105404</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.372367390405413</v>
+        <v>1.389636357448194</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1035,7 @@
         <v>3.44335693791227</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.346365727478655</v>
+        <v>0.3463657274786536</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2383766420992433</v>
@@ -1049,7 +1047,7 @@
         <v>0.9100219625981391</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05613414966354557</v>
+        <v>0.05613414966354534</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.644228244215546</v>
+        <v>-5.178405575312484</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.689508132440488</v>
+        <v>1.420650796390397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.006458602496001</v>
+        <v>-0.8847344174183018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.152687652104111</v>
+        <v>-2.810389949867194</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7147030077552053</v>
+        <v>-0.7346629577600383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1598194844383665</v>
+        <v>0.1135927026730564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2069191427171086</v>
+        <v>-0.2305372855247602</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3890622294330129</v>
+        <v>-0.3539539257015296</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.877754756076645</v>
+        <v>3.005675241148897</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.56707274912981</v>
+        <v>11.7714796617048</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.688844992860493</v>
+        <v>8.213966957634069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.652555906513062</v>
+        <v>3.574269997656634</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.208190885116406</v>
+        <v>1.343261085703392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.11342424931863</v>
+        <v>4.000237048751855</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.861643442183277</v>
+        <v>4.347048962435191</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8846505065328283</v>
+        <v>0.832433191869332</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1135,7 @@
         <v>4.27681878656895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.473128795524532</v>
+        <v>9.473128795524527</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5.303822262316249</v>
@@ -1149,7 +1147,7 @@
         <v>1.06801649101443</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5904649773704317</v>
+        <v>0.5904649773704314</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.549488773979317</v>
+        <v>1.275055405732429</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.984583536967143</v>
+        <v>-1.832607569792982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3571409996598258</v>
+        <v>0.01956358549320962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.975664491912401</v>
+        <v>3.614586207988776</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1337108566551798</v>
+        <v>0.07532942970089263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2669085191826633</v>
+        <v>-0.2527630029271092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02514264615518968</v>
+        <v>-0.06422811110083411</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.221817616036026</v>
+        <v>0.1921132921616494</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.021394870833865</v>
+        <v>6.685972413495049</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.063087762947149</v>
+        <v>6.933630076715852</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.403449088023317</v>
+        <v>8.636779328563984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.6567411114317</v>
+        <v>13.96276695954847</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.942855825994501</v>
+        <v>1.771890738780259</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.505423301984982</v>
+        <v>3.169500236095403</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.128487016848037</v>
+        <v>1.053895660429504</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1233,7 @@
         <v>6.922367836198876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.087718144412769</v>
+        <v>4.087718144412763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4659566666951818</v>
@@ -1247,7 +1245,7 @@
         <v>1.603224170469856</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5181339826599444</v>
+        <v>0.5181339826599436</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7080276158358443</v>
+        <v>-0.665921119090689</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.193378366504182</v>
+        <v>2.173513590770814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.869075119171375</v>
+        <v>3.892239713642975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.1952136843793</v>
+        <v>1.389745614240373</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1706508962580122</v>
+        <v>-0.1673666022017501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5344268138231838</v>
+        <v>0.5638950352276371</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6241401187384126</v>
+        <v>0.6908002768715163</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1092941196566436</v>
+        <v>0.1259943717980995</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.627019387920188</v>
+        <v>3.801696479536847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.278012496419755</v>
+        <v>7.417098761442052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.982604372872906</v>
+        <v>9.985582078896488</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.814169631724789</v>
+        <v>6.8218326290762</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.645220398290585</v>
+        <v>1.5697627067336</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.659200049686505</v>
+        <v>3.962439077751739</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.216956561891634</v>
+        <v>3.315858967246138</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.071246388546655</v>
+        <v>1.082338757046721</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1333,7 @@
         <v>1.742043559128433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.154195352297741</v>
+        <v>5.154195352297744</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3619494992314341</v>
@@ -1347,7 +1345,7 @@
         <v>0.835392466842921</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.953167833493593</v>
+        <v>0.9531678334935938</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.5273040344669817</v>
+        <v>-0.4281334702858486</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7838245094180663</v>
+        <v>1.224993840173825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1144310577770678</v>
+        <v>0.004578622863788537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.000975218723303</v>
+        <v>2.831759106740734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09585924132810969</v>
+        <v>-0.07884685747963285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1551428943769288</v>
+        <v>0.2539556566735147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.003479784517411715</v>
+        <v>-0.05245839018117431</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4235264324220631</v>
+        <v>0.4282152850593078</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.600245711524495</v>
+        <v>4.326074546453447</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.428409614851868</v>
+        <v>5.782935842402768</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.625421720683521</v>
+        <v>3.602177608674862</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.826775707236338</v>
+        <v>7.38419712246112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.125772407280215</v>
+        <v>1.085642112280588</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.13506791575697</v>
+        <v>2.524323856473847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.460074246822917</v>
+        <v>2.539197259278739</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.837996003659719</v>
+        <v>1.65186741186253</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1433,7 @@
         <v>4.995657416729138</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.566722884994526</v>
+        <v>4.566722884994524</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.481855189087979</v>
@@ -1447,7 +1445,7 @@
         <v>1.206772857925057</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.5772015433158133</v>
+        <v>0.5772015433158131</v>
       </c>
     </row>
     <row r="29">
@@ -1458,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7141021993074498</v>
+        <v>0.6201274263857316</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.550288655844026</v>
+        <v>3.484431054651889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.760654171356415</v>
+        <v>3.769859435588553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.309283974294856</v>
+        <v>3.356501464402851</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1813108761904857</v>
+        <v>0.1508544885759781</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6252206973632465</v>
+        <v>0.6182011850056671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8214826515529676</v>
+        <v>0.7913437556877769</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3913055295538544</v>
+        <v>0.3717904169808117</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.740776775961836</v>
+        <v>2.753876543988977</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.024199394399075</v>
+        <v>6.00409403777512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.312413719228468</v>
+        <v>6.310198945054195</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.824789499722932</v>
+        <v>5.943037505746161</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8998914807043537</v>
+        <v>0.8893370175705622</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.350543785611121</v>
+        <v>1.333888688731959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.765014954967376</v>
+        <v>1.691204949320123</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8063082620511711</v>
+        <v>0.8309195373676386</v>
       </c>
     </row>
     <row r="31">
